--- a/StanfordMuseum/Main/ptree/photontree_main_mse_report.xlsx
+++ b/StanfordMuseum/Main/ptree/photontree_main_mse_report.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\PNEE-data\StanfordMuseum\Main\ptree\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,10 +115,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -160,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +205,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,14 +416,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A5:D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -430,189 +450,192 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>16820.984180706149</v>
+      </c>
+      <c r="C5">
+        <v>129.69573694114291</v>
+      </c>
+      <c r="D5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>15189.50143063804</v>
+      </c>
+      <c r="C6">
+        <v>123.24569538380661</v>
+      </c>
+      <c r="D6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>7630.1925407552781</v>
+      </c>
+      <c r="C7">
+        <v>87.350973324601696</v>
+      </c>
+      <c r="D7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>4207.5036790466038</v>
+      </c>
+      <c r="C8">
+        <v>64.86527329046416</v>
+      </c>
+      <c r="D8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1911.3595800297001</v>
+      </c>
+      <c r="C9">
+        <v>43.719098572931493</v>
+      </c>
+      <c r="D9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>948.79571569113114</v>
+      </c>
+      <c r="C10">
+        <v>30.802527748402909</v>
+      </c>
+      <c r="D10">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>457.15199669546843</v>
+      </c>
+      <c r="C11">
+        <v>21.381113083641559</v>
+      </c>
+      <c r="D11">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>193.72749419560591</v>
+      </c>
+      <c r="C12">
+        <v>13.918602451237909</v>
+      </c>
+      <c r="D12">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>95.317314272230547</v>
+      </c>
+      <c r="C13">
+        <v>9.7630586535281321</v>
+      </c>
+      <c r="D13">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>45.94553199080849</v>
+      </c>
+      <c r="C14">
+        <v>6.7783133588532536</v>
+      </c>
+      <c r="D14">
+        <v>6659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>22.66675750890361</v>
-      </c>
-      <c r="C5">
-        <v>4.760961826028813</v>
-      </c>
-      <c r="D5">
+      <c r="B15">
+        <v>22.666757508903611</v>
+      </c>
+      <c r="C15">
+        <v>4.7609618260288133</v>
+      </c>
+      <c r="D15">
         <v>13296</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>193.7274941956059</v>
-      </c>
-      <c r="C6">
-        <v>13.91860245123791</v>
-      </c>
-      <c r="D6">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1911.3595800297</v>
-      </c>
-      <c r="C7">
-        <v>43.71909857293149</v>
-      </c>
-      <c r="D7">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>16820.98418070615</v>
-      </c>
-      <c r="C8">
-        <v>129.6957369411429</v>
-      </c>
-      <c r="D8">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B16">
         <v>11.31322222960257</v>
       </c>
-      <c r="C9">
-        <v>3.363513375861997</v>
-      </c>
-      <c r="D9">
+      <c r="C16">
+        <v>3.3635133758619968</v>
+      </c>
+      <c r="D16">
         <v>25632</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>95.31731427223055</v>
-      </c>
-      <c r="C10">
-        <v>9.763058653528132</v>
-      </c>
-      <c r="D10">
-        <v>3414</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>15189.50143063804</v>
-      </c>
-      <c r="C11">
-        <v>123.2456953838066</v>
-      </c>
-      <c r="D11">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>948.7957156911311</v>
-      </c>
-      <c r="C12">
-        <v>30.80252774840291</v>
-      </c>
-      <c r="D12">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>5.617923224503467</v>
-      </c>
-      <c r="C13">
-        <v>2.370215860318099</v>
-      </c>
-      <c r="D13">
+      <c r="B17">
+        <v>5.6179232245034667</v>
+      </c>
+      <c r="C17">
+        <v>2.3702158603180989</v>
+      </c>
+      <c r="D17">
         <v>55879</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>7630.192540755278</v>
-      </c>
-      <c r="C14">
-        <v>87.3509733246017</v>
-      </c>
-      <c r="D14">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>45.94553199080849</v>
-      </c>
-      <c r="C15">
-        <v>6.778313358853254</v>
-      </c>
-      <c r="D15">
-        <v>6659</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>457.1519966954684</v>
-      </c>
-      <c r="C16">
-        <v>21.38111308364156</v>
-      </c>
-      <c r="D16">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>4207.503679046604</v>
-      </c>
-      <c r="C17">
-        <v>64.86527329046416</v>
-      </c>
-      <c r="D17">
-        <v>282</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A5:D17">
+    <sortCondition ref="D5:D17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>